--- a/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
+++ b/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
@@ -1,115 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Họ tên SV</t>
-  </si>
-  <si>
-    <t>Mã SV</t>
-  </si>
-  <si>
-    <t>Mã lớp</t>
-  </si>
-  <si>
-    <t>Điểm quá trình 1</t>
-  </si>
-  <si>
-    <t>Điểm quá trình 2</t>
-  </si>
-  <si>
-    <t>Điểm quá trình 3</t>
-  </si>
-  <si>
-    <t>Đánh giá cuối kỳ</t>
-  </si>
-  <si>
-    <t>GPA học phần</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>O6</t>
-  </si>
-  <si>
-    <t>Trọng số</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -187,68 +131,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -536,216 +596,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="23" max="23"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="24" max="24"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="25" max="25"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="26" max="26"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="19.5" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Họ tên SV</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Mã SV</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mã lớp</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Điểm quá trình 1</t>
+        </is>
+      </c>
+      <c r="F1" s="23" t="n"/>
+      <c r="G1" s="24" t="n"/>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Điểm quá trình 2</t>
+        </is>
+      </c>
+      <c r="I1" s="23" t="n"/>
+      <c r="J1" s="23" t="n"/>
+      <c r="K1" s="24" t="n"/>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Điểm quá trình 3</t>
+        </is>
+      </c>
+      <c r="M1" s="23" t="n"/>
+      <c r="N1" s="23" t="n"/>
+      <c r="O1" s="23" t="n"/>
+      <c r="P1" s="23" t="n"/>
+      <c r="Q1" s="23" t="n"/>
+      <c r="R1" s="24" t="n"/>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>Đánh giá cuối kỳ</t>
+        </is>
+      </c>
+      <c r="T1" s="23" t="n"/>
+      <c r="U1" s="23" t="n"/>
+      <c r="V1" s="23" t="n"/>
+      <c r="W1" s="23" t="n"/>
+      <c r="X1" s="24" t="n"/>
+      <c r="Y1" s="9" t="inlineStr">
+        <is>
+          <t>GPA học phần</t>
+        </is>
+      </c>
+      <c r="Z1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="25" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="N2" s="13" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
+      </c>
+      <c r="O2" s="13" t="inlineStr">
+        <is>
+          <t>O4</t>
+        </is>
+      </c>
+      <c r="P2" s="13" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="Q2" s="13" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
+      </c>
+      <c r="R2" s="13" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="T2" s="13" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
+      </c>
+      <c r="U2" s="13" t="inlineStr">
+        <is>
+          <t>O4</t>
+        </is>
+      </c>
+      <c r="V2" s="13" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="W2" s="13" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
+      </c>
+      <c r="X2" s="13" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="Y2" s="25" t="n"/>
+      <c r="Z2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customFormat="1" customHeight="1" s="1">
+      <c r="A3" s="26" t="n"/>
+      <c r="B3" s="26" t="n"/>
+      <c r="C3" s="26" t="n"/>
+      <c r="D3" s="26" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Trọng số</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="n"/>
+      <c r="G3" s="17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Trọng số</t>
+        </is>
+      </c>
+      <c r="I3" s="23" t="n"/>
+      <c r="J3" s="24" t="n"/>
+      <c r="K3" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Trọng số</t>
+        </is>
+      </c>
+      <c r="M3" s="23" t="n"/>
+      <c r="N3" s="23" t="n"/>
+      <c r="O3" s="23" t="n"/>
+      <c r="P3" s="23" t="n"/>
+      <c r="Q3" s="24" t="n"/>
+      <c r="R3" s="17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>Trọng số</t>
+        </is>
+      </c>
+      <c r="T3" s="23" t="n"/>
+      <c r="U3" s="23" t="n"/>
+      <c r="V3" s="23" t="n"/>
+      <c r="W3" s="24" t="n"/>
+      <c r="X3" s="17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y3" s="26" t="n"/>
+      <c r="Z3" s="10" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nguyễn Duy Minh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B20DCDT136</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.005714285714286</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6103333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Quyết</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B20DCDT172</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.005714285714286</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.6103333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cao Duy Hậu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B20DCDT067</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>D20DTRB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.005714285714286</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.6103333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lưu Thị Mai</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B20DCDT125</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.005714285714286</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6103333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="7"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Mai</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B20DCDT127</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.005714285714286</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6103333333333334</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
+++ b/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
@@ -867,12 +867,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Minh</t>
+          <t>La Thị Hồng Nhung</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B20DCDT136</t>
+          <t>B20DCDT158</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -881,67 +881,67 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>6.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="P4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7380952380952381</v>
+        <v>6.839285714285714</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="U4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.142857142857143</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="X4" t="n">
-        <v>1.005714285714286</v>
+        <v>6.674285714285714</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6103333333333334</v>
+        <v>7.059749999999999</v>
       </c>
     </row>
     <row r="5">
@@ -950,12 +950,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Quyết</t>
+          <t>Nguyễn Trung Tuấn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B20DCDT172</t>
+          <t>B20DCDT190</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3.625</v>
       </c>
       <c r="O5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="P5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7380952380952381</v>
+        <v>2.675595238095239</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="U5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.142857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="X5" t="n">
-        <v>1.005714285714286</v>
+        <v>3.645714285714285</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6103333333333334</v>
+        <v>2.212458333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cao Duy Hậu</t>
+          <t>Phạm Thế Anh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B20DCDT067</t>
+          <t>B20DCDT017</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D20DTRB</t>
+          <t>D20DTMT1</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1068,46 +1068,46 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.717261904761905</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.7380952380952381</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.142857142857143</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="U6" t="n">
-        <v>1.142857142857143</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.142857142857143</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="X6" t="n">
-        <v>1.005714285714286</v>
+        <v>3.514285714285715</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6103333333333334</v>
+        <v>2.281041666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lưu Thị Mai</t>
+          <t>Nguyễn Tiến Duy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B20DCDT125</t>
+          <t>B20DCDT037</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1157,40 +1157,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="O7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="P7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7380952380952381</v>
+        <v>2.306547619047619</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="U7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="X7" t="n">
-        <v>1.005714285714286</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6103333333333334</v>
+        <v>1.907291666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Mai</t>
+          <t>Lê Sỹ Sang</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B20DCDT127</t>
+          <t>B20DCDT175</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1240,40 +1240,40 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="O8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="P8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7380952380952381</v>
+        <v>2.306547619047619</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="U8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.142857142857143</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="X8" t="n">
-        <v>1.005714285714286</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6103333333333334</v>
+        <v>1.907291666666667</v>
       </c>
     </row>
   </sheetData>

--- a/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
+++ b/form_collectdata/form_collect/DataCollected/TongHopDiem2.xlsx
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -172,24 +172,21 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -199,9 +196,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -211,9 +205,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -223,14 +214,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -601,7 +589,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,32 +597,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="23" max="23"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="24" max="24"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="25" max="25"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="26" max="26"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="23" max="23"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="24" max="24"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="25" max="25"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customFormat="1" customHeight="1" s="1">
@@ -643,223 +631,223 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Họ tên SV</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Mã SV</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mã lớp</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Điểm quá trình 1</t>
         </is>
       </c>
-      <c r="F1" s="23" t="n"/>
-      <c r="G1" s="24" t="n"/>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="F1" s="19" t="n"/>
+      <c r="G1" s="20" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Điểm quá trình 2</t>
         </is>
       </c>
-      <c r="I1" s="23" t="n"/>
-      <c r="J1" s="23" t="n"/>
-      <c r="K1" s="24" t="n"/>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="I1" s="19" t="n"/>
+      <c r="J1" s="19" t="n"/>
+      <c r="K1" s="20" t="n"/>
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Điểm quá trình 3</t>
         </is>
       </c>
-      <c r="M1" s="23" t="n"/>
-      <c r="N1" s="23" t="n"/>
-      <c r="O1" s="23" t="n"/>
-      <c r="P1" s="23" t="n"/>
-      <c r="Q1" s="23" t="n"/>
-      <c r="R1" s="24" t="n"/>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="M1" s="19" t="n"/>
+      <c r="N1" s="19" t="n"/>
+      <c r="O1" s="19" t="n"/>
+      <c r="P1" s="19" t="n"/>
+      <c r="Q1" s="19" t="n"/>
+      <c r="R1" s="20" t="n"/>
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Đánh giá cuối kỳ</t>
         </is>
       </c>
-      <c r="T1" s="23" t="n"/>
-      <c r="U1" s="23" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="23" t="n"/>
-      <c r="X1" s="24" t="n"/>
-      <c r="Y1" s="9" t="inlineStr">
+      <c r="T1" s="19" t="n"/>
+      <c r="U1" s="19" t="n"/>
+      <c r="V1" s="19" t="n"/>
+      <c r="W1" s="19" t="n"/>
+      <c r="X1" s="20" t="n"/>
+      <c r="Y1" s="8" t="inlineStr">
         <is>
           <t>GPA học phần</t>
         </is>
       </c>
-      <c r="Z1" s="10" t="n"/>
+      <c r="Z1" s="9" t="n"/>
     </row>
     <row r="2" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="25" t="n"/>
-      <c r="B2" s="25" t="n"/>
-      <c r="C2" s="25" t="n"/>
-      <c r="D2" s="25" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="A2" s="21" t="n"/>
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="21" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>O1</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>O5</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>O3</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>O5</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>O1</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="11" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="N2" s="13" t="inlineStr">
+      <c r="N2" s="11" t="inlineStr">
         <is>
           <t>O3</t>
         </is>
       </c>
-      <c r="O2" s="13" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>O4</t>
         </is>
       </c>
-      <c r="P2" s="13" t="inlineStr">
+      <c r="P2" s="11" t="inlineStr">
         <is>
           <t>O5</t>
         </is>
       </c>
-      <c r="Q2" s="13" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>O6</t>
         </is>
       </c>
-      <c r="R2" s="13" t="inlineStr">
+      <c r="R2" s="11" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="T2" s="13" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>O3</t>
         </is>
       </c>
-      <c r="U2" s="13" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>O4</t>
         </is>
       </c>
-      <c r="V2" s="13" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>O5</t>
         </is>
       </c>
-      <c r="W2" s="13" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>O6</t>
         </is>
       </c>
-      <c r="X2" s="13" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
       </c>
-      <c r="Y2" s="25" t="n"/>
-      <c r="Z2" s="10" t="n"/>
+      <c r="Y2" s="21" t="n"/>
+      <c r="Z2" s="9" t="n"/>
     </row>
     <row r="3" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="26" t="n"/>
-      <c r="B3" s="26" t="n"/>
-      <c r="C3" s="26" t="n"/>
-      <c r="D3" s="26" t="n"/>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="A3" s="22" t="n"/>
+      <c r="B3" s="22" t="n"/>
+      <c r="C3" s="22" t="n"/>
+      <c r="D3" s="22" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="F3" s="24" t="n"/>
-      <c r="G3" s="17" t="n">
+      <c r="F3" s="20" t="n"/>
+      <c r="G3" s="14" t="n">
         <v>0.1</v>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="I3" s="23" t="n"/>
-      <c r="J3" s="24" t="n"/>
-      <c r="K3" s="17" t="n">
+      <c r="I3" s="19" t="n"/>
+      <c r="J3" s="20" t="n"/>
+      <c r="K3" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="M3" s="23" t="n"/>
-      <c r="N3" s="23" t="n"/>
-      <c r="O3" s="23" t="n"/>
-      <c r="P3" s="23" t="n"/>
-      <c r="Q3" s="24" t="n"/>
-      <c r="R3" s="17" t="n">
+      <c r="M3" s="19" t="n"/>
+      <c r="N3" s="19" t="n"/>
+      <c r="O3" s="19" t="n"/>
+      <c r="P3" s="19" t="n"/>
+      <c r="Q3" s="20" t="n"/>
+      <c r="R3" s="14" t="n">
         <v>0.35</v>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="T3" s="23" t="n"/>
-      <c r="U3" s="23" t="n"/>
-      <c r="V3" s="23" t="n"/>
-      <c r="W3" s="24" t="n"/>
-      <c r="X3" s="17" t="n">
+      <c r="T3" s="19" t="n"/>
+      <c r="U3" s="19" t="n"/>
+      <c r="V3" s="19" t="n"/>
+      <c r="W3" s="20" t="n"/>
+      <c r="X3" s="14" t="n">
         <v>0.35</v>
       </c>
-      <c r="Y3" s="26" t="n"/>
-      <c r="Z3" s="10" t="n"/>
+      <c r="Y3" s="22" t="n"/>
+      <c r="Z3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -867,27 +855,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La Thị Hồng Nhung</t>
+          <t>Hoàng Tuấn Anh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B20DCDT158</t>
+          <t>B20DCDT010</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D20XLTH</t>
+          <t>D20DTMT1</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -902,46 +890,46 @@
         <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>6.75</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>6.428571428571429</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>6.285714285714286</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.571428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="R4" t="n">
-        <v>6.839285714285714</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>6.571428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="U4" t="n">
-        <v>6.428571428571429</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="V4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.571428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="X4" t="n">
-        <v>6.674285714285714</v>
+        <v>1.485714285714285</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.059749999999999</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="5">
@@ -950,27 +938,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Tuấn</t>
+          <t>Lê Tiến Phát</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B20DCDT190</t>
+          <t>B20DCDT159</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D20XLTH</t>
+          <t>D20DTRB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -985,295 +973,46 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4.142857142857143</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.675595238095239</v>
+        <v>1.523809523809524</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>4.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.645714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.212458333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Phạm Thế Anh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>B20DCDT017</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.717261904761905</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3.514285714285715</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.281041666666667</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nguyễn Tiến Duy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>B20DCDT037</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.306547619047619</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3.142857142857143</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.907291666666667</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lê Sỹ Sang</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B20DCDT175</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>D20DTMT2</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.306547619047619</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3.142857142857143</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.907291666666667</v>
+        <v>1.373333333333333</v>
       </c>
     </row>
   </sheetData>
